--- a/DB autores V2/Output/2_2_autores_separados.xlsx
+++ b/DB autores V2/Output/2_2_autores_separados.xlsx
@@ -3369,7 +3369,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
@@ -9305,7 +9305,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
@@ -11160,7 +11160,7 @@
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
@@ -11762,7 +11762,7 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
@@ -12077,7 +12077,7 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
@@ -12161,7 +12161,7 @@
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
@@ -12616,7 +12616,7 @@
     <row r="1741">
       <c r="A1741" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
@@ -13785,21 +13785,21 @@
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
     <row r="1909">
       <c r="A1909" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
     <row r="1910">
       <c r="A1910" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
@@ -16676,49 +16676,49 @@
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
@@ -18013,7 +18013,7 @@
     <row r="2512">
       <c r="A2512" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
@@ -19301,7 +19301,7 @@
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
@@ -19434,7 +19434,7 @@
     <row r="2715">
       <c r="A2715" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NO APLICA</t>
         </is>
       </c>
     </row>
